--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H2">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I2">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J2">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N2">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O2">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P2">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q2">
-        <v>591.2800556928906</v>
+        <v>7.1211945715725</v>
       </c>
       <c r="R2">
-        <v>3547.680334157344</v>
+        <v>28.48477828629</v>
       </c>
       <c r="S2">
-        <v>0.1542763540925821</v>
+        <v>0.002352933526044214</v>
       </c>
       <c r="T2">
-        <v>0.1258880955338278</v>
+        <v>0.001179189378145844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H3">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I3">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J3">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P3">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q3">
-        <v>871.7357480260674</v>
+        <v>11.599474336283</v>
       </c>
       <c r="R3">
-        <v>7845.621732234606</v>
+        <v>69.596846017698</v>
       </c>
       <c r="S3">
-        <v>0.227452645565783</v>
+        <v>0.003832614286271767</v>
       </c>
       <c r="T3">
-        <v>0.2783989213009013</v>
+        <v>0.002881112879015154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H4">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I4">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J4">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N4">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O4">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P4">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q4">
-        <v>412.2235110669449</v>
+        <v>6.354049065448001</v>
       </c>
       <c r="R4">
-        <v>3710.011599602503</v>
+        <v>38.12429439268801</v>
       </c>
       <c r="S4">
-        <v>0.1075570531194835</v>
+        <v>0.00209945886493607</v>
       </c>
       <c r="T4">
-        <v>0.1316483591223287</v>
+        <v>0.001578238122316735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H5">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I5">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J5">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N5">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O5">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P5">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q5">
-        <v>138.5828229537453</v>
+        <v>2.72101488318975</v>
       </c>
       <c r="R5">
-        <v>831.496937722472</v>
+        <v>10.884059532759</v>
       </c>
       <c r="S5">
-        <v>0.03615892749859024</v>
+        <v>0.0008990580272978938</v>
       </c>
       <c r="T5">
-        <v>0.02950535450566593</v>
+        <v>0.0004505693273489067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H6">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I6">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J6">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N6">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O6">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P6">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q6">
-        <v>319.5322267191725</v>
+        <v>4.324609338299001</v>
       </c>
       <c r="R6">
-        <v>2875.790040472552</v>
+        <v>25.947656029794</v>
       </c>
       <c r="S6">
-        <v>0.08337211187607287</v>
+        <v>0.001428906091085873</v>
       </c>
       <c r="T6">
-        <v>0.1020463224560025</v>
+        <v>0.001074159681728742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H7">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I7">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J7">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N7">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O7">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P7">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q7">
-        <v>303.3684194066337</v>
+        <v>4.788704646889501</v>
       </c>
       <c r="R7">
-        <v>2730.315774659703</v>
+        <v>28.732227881337</v>
       </c>
       <c r="S7">
-        <v>0.0791546632467406</v>
+        <v>0.001582249101150727</v>
       </c>
       <c r="T7">
-        <v>0.09688422312703038</v>
+        <v>0.001189433092566691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H8">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I8">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J8">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N8">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O8">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P8">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q8">
-        <v>257.709335641307</v>
+        <v>535.1794138869734</v>
       </c>
       <c r="R8">
-        <v>1030.837342565228</v>
+        <v>3211.07648332184</v>
       </c>
       <c r="S8">
-        <v>0.06724132893637259</v>
+        <v>0.1768301052200132</v>
       </c>
       <c r="T8">
-        <v>0.03657887341518665</v>
+        <v>0.1329294981161741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H9">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I9">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J9">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P9">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q9">
-        <v>379.9459127964576</v>
+        <v>871.7357480260675</v>
       </c>
       <c r="R9">
-        <v>2279.675476778746</v>
+        <v>7845.621732234608</v>
       </c>
       <c r="S9">
-        <v>0.09913520609100498</v>
+        <v>0.2880326112096153</v>
       </c>
       <c r="T9">
-        <v>0.08089342251153317</v>
+        <v>0.3247865831574356</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H10">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I10">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J10">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N10">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O10">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P10">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q10">
-        <v>179.6675638725872</v>
+        <v>477.5260976901831</v>
       </c>
       <c r="R10">
-        <v>1078.005383235523</v>
+        <v>4297.734879211648</v>
       </c>
       <c r="S10">
-        <v>0.04687872766227003</v>
+        <v>0.1577807141096253</v>
       </c>
       <c r="T10">
-        <v>0.03825261350751545</v>
+        <v>0.1779140869104987</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H11">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I11">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J11">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N11">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O11">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P11">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q11">
-        <v>60.40130542345976</v>
+        <v>204.4925378357774</v>
       </c>
       <c r="R11">
-        <v>241.605221693839</v>
+        <v>1226.955227014664</v>
       </c>
       <c r="S11">
-        <v>0.01575986386390797</v>
+        <v>0.06756694305481056</v>
       </c>
       <c r="T11">
-        <v>0.008573269958182398</v>
+        <v>0.0507924813953205</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H12">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I12">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J12">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N12">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O12">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P12">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q12">
-        <v>139.2680796027998</v>
+        <v>325.0075345785583</v>
       </c>
       <c r="R12">
-        <v>835.6084776167991</v>
+        <v>2925.067811207025</v>
       </c>
       <c r="S12">
-        <v>0.03633772415580193</v>
+        <v>0.1073866352956563</v>
       </c>
       <c r="T12">
-        <v>0.02965125094453748</v>
+        <v>0.1210895467981147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H13">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I13">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J13">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N13">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O13">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P13">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q13">
-        <v>132.2230862805288</v>
+        <v>359.8857074388614</v>
       </c>
       <c r="R13">
-        <v>793.3385176831729</v>
+        <v>3238.971366949752</v>
       </c>
       <c r="S13">
-        <v>0.03449954971730695</v>
+        <v>0.1189108285226995</v>
       </c>
       <c r="T13">
-        <v>0.028151317395536</v>
+        <v>0.1340842675213648</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2204733333333333</v>
+        <v>0.9207270000000001</v>
       </c>
       <c r="H14">
-        <v>0.66142</v>
+        <v>1.841454</v>
       </c>
       <c r="I14">
-        <v>0.01217584417408306</v>
+        <v>0.06773910690368684</v>
       </c>
       <c r="J14">
-        <v>0.01352797622175213</v>
+        <v>0.04639560508888476</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.464142</v>
+        <v>42.960745</v>
       </c>
       <c r="N14">
-        <v>94.928284</v>
+        <v>85.92149000000001</v>
       </c>
       <c r="O14">
-        <v>0.2242480928640021</v>
+        <v>0.1929389995390091</v>
       </c>
       <c r="P14">
-        <v>0.1646949584305047</v>
+        <v>0.1411745935894314</v>
       </c>
       <c r="Q14">
-        <v>10.46457760054667</v>
+        <v>39.555117861615</v>
       </c>
       <c r="R14">
-        <v>62.78746560328</v>
+        <v>158.22047144646</v>
       </c>
       <c r="S14">
-        <v>0.002730409835047396</v>
+        <v>0.01306951551566332</v>
       </c>
       <c r="T14">
-        <v>0.002227989481490323</v>
+        <v>0.00654988069275906</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2204733333333333</v>
+        <v>0.9207270000000001</v>
       </c>
       <c r="H15">
-        <v>0.66142</v>
+        <v>1.841454</v>
       </c>
       <c r="I15">
-        <v>0.01217584417408306</v>
+        <v>0.06773910690368684</v>
       </c>
       <c r="J15">
-        <v>0.01352797622175213</v>
+        <v>0.04639560508888476</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3306133482671609</v>
+        <v>0.3142718473884727</v>
       </c>
       <c r="P15">
-        <v>0.364219496500593</v>
+        <v>0.3449318212311228</v>
       </c>
       <c r="Q15">
-        <v>15.42813138132889</v>
+        <v>64.430001159642</v>
       </c>
       <c r="R15">
-        <v>138.85318243196</v>
+        <v>386.580006957852</v>
       </c>
       <c r="S15">
-        <v>0.004025496610372803</v>
+        <v>0.02128849426706691</v>
       </c>
       <c r="T15">
-        <v>0.004927152688158556</v>
+        <v>0.01600332056042897</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1408,19 +1408,19 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2204733333333333</v>
+        <v>0.9207270000000001</v>
       </c>
       <c r="H16">
-        <v>0.66142</v>
+        <v>1.841454</v>
       </c>
       <c r="I16">
-        <v>0.01217584417408306</v>
+        <v>0.06773910690368684</v>
       </c>
       <c r="J16">
-        <v>0.01352797622175213</v>
+        <v>0.04639560508888476</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.09063966666667</v>
+        <v>38.33270933333333</v>
       </c>
       <c r="N16">
-        <v>99.271919</v>
+        <v>114.998128</v>
       </c>
       <c r="O16">
-        <v>0.1563393442759357</v>
+        <v>0.1721542442616619</v>
       </c>
       <c r="P16">
-        <v>0.1722309082614559</v>
+        <v>0.1889494000155887</v>
       </c>
       <c r="Q16">
-        <v>7.295603629442223</v>
+        <v>35.293960466352</v>
       </c>
       <c r="R16">
-        <v>65.66043266497999</v>
+        <v>211.763762798112</v>
       </c>
       <c r="S16">
-        <v>0.001903563494182117</v>
+        <v>0.01166157475596413</v>
       </c>
       <c r="T16">
-        <v>0.002329935631611748</v>
+        <v>0.008766421744904971</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2204733333333333</v>
+        <v>0.9207270000000001</v>
       </c>
       <c r="H17">
-        <v>0.66142</v>
+        <v>1.841454</v>
       </c>
       <c r="I17">
-        <v>0.01217584417408306</v>
+        <v>0.06773910690368684</v>
       </c>
       <c r="J17">
-        <v>0.01352797622175213</v>
+        <v>0.04639560508888476</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.1245335</v>
+        <v>16.4153395</v>
       </c>
       <c r="N17">
-        <v>22.249067</v>
+        <v>32.830679</v>
       </c>
       <c r="O17">
-        <v>0.05255873837088856</v>
+        <v>0.07372216613615937</v>
       </c>
       <c r="P17">
-        <v>0.03860081537640052</v>
+        <v>0.05394293982902391</v>
       </c>
       <c r="Q17">
-        <v>2.452662982523333</v>
+        <v>15.1140462918165</v>
       </c>
       <c r="R17">
-        <v>14.71597789514</v>
+        <v>60.45618516726601</v>
       </c>
       <c r="S17">
-        <v>0.000639947008390339</v>
+        <v>0.004993873693068661</v>
       </c>
       <c r="T17">
-        <v>0.0005221909125521902</v>
+        <v>0.002502715333640866</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2204733333333333</v>
+        <v>0.9207270000000001</v>
       </c>
       <c r="H18">
-        <v>0.66142</v>
+        <v>1.841454</v>
       </c>
       <c r="I18">
-        <v>0.01217584417408306</v>
+        <v>0.06773910690368684</v>
       </c>
       <c r="J18">
-        <v>0.01352797622175213</v>
+        <v>0.04639560508888476</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.64998233333334</v>
+        <v>26.08950466666667</v>
       </c>
       <c r="N18">
-        <v>76.94994700000001</v>
+        <v>78.26851400000001</v>
       </c>
       <c r="O18">
-        <v>0.121185370215801</v>
+        <v>0.1171693584190632</v>
       </c>
       <c r="P18">
-        <v>0.1335036070218497</v>
+        <v>0.1286002565225384</v>
       </c>
       <c r="Q18">
-        <v>5.655137104971112</v>
+        <v>24.021311363226</v>
       </c>
       <c r="R18">
-        <v>50.89623394474</v>
+        <v>144.127868179356</v>
       </c>
       <c r="S18">
-        <v>0.001475534183926159</v>
+        <v>0.00793694769578532</v>
       </c>
       <c r="T18">
-        <v>0.001806033621309724</v>
+        <v>0.005966486715948969</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1594,19 +1594,19 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2204733333333333</v>
+        <v>0.9207270000000001</v>
       </c>
       <c r="H19">
-        <v>0.66142</v>
+        <v>1.841454</v>
       </c>
       <c r="I19">
-        <v>0.01217584417408306</v>
+        <v>0.06773910690368684</v>
       </c>
       <c r="J19">
-        <v>0.01352797622175213</v>
+        <v>0.04639560508888476</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,400 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.35245633333333</v>
+        <v>28.889299</v>
       </c>
       <c r="N19">
-        <v>73.05736899999999</v>
+        <v>86.66789700000001</v>
       </c>
       <c r="O19">
-        <v>0.1150551060062118</v>
+        <v>0.1297433842556338</v>
       </c>
       <c r="P19">
-        <v>0.126750214409196</v>
+        <v>0.1424009888122948</v>
       </c>
       <c r="Q19">
-        <v>5.369067222664444</v>
+        <v>26.59915760037301</v>
       </c>
       <c r="R19">
-        <v>48.32160500398</v>
+        <v>159.594945602238</v>
       </c>
       <c r="S19">
-        <v>0.001400893042164242</v>
+        <v>0.008788700976138495</v>
       </c>
       <c r="T19">
-        <v>0.001714673886629587</v>
+        <v>0.006606780041201926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.145077</v>
+      </c>
+      <c r="I20">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J20">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>42.960745</v>
+      </c>
+      <c r="N20">
+        <v>85.92149000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1929389995390091</v>
+      </c>
+      <c r="P20">
+        <v>0.1411745935894314</v>
+      </c>
+      <c r="Q20">
+        <v>2.077538667455</v>
+      </c>
+      <c r="R20">
+        <v>12.46523200473</v>
+      </c>
+      <c r="S20">
+        <v>0.0006864452772884501</v>
+      </c>
+      <c r="T20">
+        <v>0.0005160254023523836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.145077</v>
+      </c>
+      <c r="I21">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J21">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>69.97731266666666</v>
+      </c>
+      <c r="N21">
+        <v>209.931938</v>
+      </c>
+      <c r="O21">
+        <v>0.3142718473884727</v>
+      </c>
+      <c r="P21">
+        <v>0.3449318212311228</v>
+      </c>
+      <c r="Q21">
+        <v>3.384032863247334</v>
+      </c>
+      <c r="R21">
+        <v>30.456295769226</v>
+      </c>
+      <c r="S21">
+        <v>0.001118127625518844</v>
+      </c>
+      <c r="T21">
+        <v>0.001260804634243024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H22">
+        <v>0.145077</v>
+      </c>
+      <c r="I22">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J22">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>38.33270933333333</v>
+      </c>
+      <c r="N22">
+        <v>114.998128</v>
+      </c>
+      <c r="O22">
+        <v>0.1721542442616619</v>
+      </c>
+      <c r="P22">
+        <v>0.1889494000155887</v>
+      </c>
+      <c r="Q22">
+        <v>1.853731490650667</v>
+      </c>
+      <c r="R22">
+        <v>16.683583415856</v>
+      </c>
+      <c r="S22">
+        <v>0.0006124965311364493</v>
+      </c>
+      <c r="T22">
+        <v>0.000690653237868325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.145077</v>
+      </c>
+      <c r="I23">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J23">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>16.4153395</v>
+      </c>
+      <c r="N23">
+        <v>32.830679</v>
+      </c>
+      <c r="O23">
+        <v>0.07372216613615937</v>
+      </c>
+      <c r="P23">
+        <v>0.05394293982902391</v>
+      </c>
+      <c r="Q23">
+        <v>0.7938294028805002</v>
+      </c>
+      <c r="R23">
+        <v>4.762976417283001</v>
+      </c>
+      <c r="S23">
+        <v>0.0002622913609822536</v>
+      </c>
+      <c r="T23">
+        <v>0.000197173772713636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.145077</v>
+      </c>
+      <c r="I24">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J24">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>26.08950466666667</v>
+      </c>
+      <c r="N24">
+        <v>78.26851400000001</v>
+      </c>
+      <c r="O24">
+        <v>0.1171693584190632</v>
+      </c>
+      <c r="P24">
+        <v>0.1286002565225384</v>
+      </c>
+      <c r="Q24">
+        <v>1.261662356175334</v>
+      </c>
+      <c r="R24">
+        <v>11.354961205578</v>
+      </c>
+      <c r="S24">
+        <v>0.0004168693365356749</v>
+      </c>
+      <c r="T24">
+        <v>0.000470063326746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.145077</v>
+      </c>
+      <c r="I25">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J25">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>28.889299</v>
+      </c>
+      <c r="N25">
+        <v>86.66789700000001</v>
+      </c>
+      <c r="O25">
+        <v>0.1297433842556338</v>
+      </c>
+      <c r="P25">
+        <v>0.1424009888122948</v>
+      </c>
+      <c r="Q25">
+        <v>1.397057610341</v>
+      </c>
+      <c r="R25">
+        <v>12.573518493069</v>
+      </c>
+      <c r="S25">
+        <v>0.00046160565564503</v>
+      </c>
+      <c r="T25">
+        <v>0.00052050815716138</v>
       </c>
     </row>
   </sheetData>
